--- a/clcore/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/clcore/output/StructureDefinition-ImmunizationCL.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.8.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-21T10:22:43+10:00</t>
+    <t>2023-06-27T22:42:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/clcore/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/clcore/output/StructureDefinition-ImmunizationCL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="470">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>1.8.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T22:42:19-04:00</t>
+    <t>2023-09-01T14:45:29-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -149,6 +149,10 @@
   </si>
   <si>
     <t>Describes the event of a patient being administered a vaccine or a record of an immunization as reported by a patient, a clinician or another party.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1938,16 +1942,16 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>38</v>
@@ -1958,10 +1962,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1972,7 +1976,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1981,19 +1985,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2043,13 +2047,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2075,10 +2079,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2089,7 +2093,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2098,16 +2102,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2158,19 +2162,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2190,10 +2194,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2204,28 +2208,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2275,19 +2279,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2307,10 +2311,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2321,7 +2325,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2333,16 +2337,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2368,13 +2372,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2392,19 +2396,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2424,21 +2428,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2450,16 +2454,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2509,19 +2513,19 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -2530,7 +2534,7 @@
         <v>38</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>38</v>
@@ -2541,14 +2545,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2567,16 +2571,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2626,7 +2630,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2647,7 +2651,7 @@
         <v>38</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>38</v>
@@ -2658,10 +2662,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2669,7 +2673,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>40</v>
@@ -2684,13 +2688,13 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2729,17 +2733,17 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2751,7 +2755,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2771,23 +2775,23 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -2799,13 +2803,13 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2856,7 +2860,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2865,10 +2869,10 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2888,14 +2892,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2908,25 +2912,25 @@
         <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -2975,7 +2979,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2987,7 +2991,7 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -2996,7 +3000,7 @@
         <v>38</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>38</v>
@@ -3007,10 +3011,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3024,7 +3028,7 @@
         <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>38</v>
@@ -3033,13 +3037,13 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3090,7 +3094,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3102,30 +3106,30 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3133,31 +3137,31 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3183,13 +3187,13 @@
         <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>38</v>
@@ -3207,31 +3211,31 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>38</v>
@@ -3239,10 +3243,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3253,10 +3257,10 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>38</v>
@@ -3265,16 +3269,16 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3300,13 +3304,13 @@
         <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>38</v>
@@ -3324,28 +3328,28 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>38</v>
@@ -3356,10 +3360,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3370,7 +3374,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -3382,13 +3386,13 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3439,13 +3443,13 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
@@ -3460,7 +3464,7 @@
         <v>38</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>38</v>
@@ -3471,10 +3475,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3482,7 +3486,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>40</v>
@@ -3497,13 +3501,13 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3542,19 +3546,19 @@
         <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3566,7 +3570,7 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
@@ -3586,23 +3590,23 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -3614,13 +3618,13 @@
         <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3671,7 +3675,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3683,7 +3687,7 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -3703,10 +3707,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3726,22 +3730,22 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3790,7 +3794,7 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3802,16 +3806,16 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>38</v>
@@ -3822,10 +3826,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3836,7 +3840,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -3845,22 +3849,22 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3909,28 +3913,28 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>38</v>
@@ -3941,10 +3945,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3952,28 +3956,28 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4000,13 +4004,13 @@
         <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>38</v>
@@ -4024,42 +4028,42 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4070,7 +4074,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -4082,13 +4086,13 @@
         <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4139,13 +4143,13 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
@@ -4160,7 +4164,7 @@
         <v>38</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>38</v>
@@ -4171,10 +4175,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4182,7 +4186,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -4197,13 +4201,13 @@
         <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4242,19 +4246,19 @@
         <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4266,7 +4270,7 @@
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
@@ -4286,23 +4290,23 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4314,13 +4318,13 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4371,7 +4375,7 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4383,7 +4387,7 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -4403,10 +4407,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4426,22 +4430,22 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>38</v>
@@ -4490,7 +4494,7 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4502,16 +4506,16 @@
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>38</v>
@@ -4522,10 +4526,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4536,7 +4540,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -4545,22 +4549,22 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4609,28 +4613,28 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>38</v>
@@ -4641,10 +4645,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4652,28 +4656,28 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4724,31 +4728,31 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>38</v>
@@ -4756,10 +4760,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4770,7 +4774,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -4782,13 +4786,13 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4839,31 +4843,31 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>38</v>
@@ -4871,10 +4875,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4882,10 +4886,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4894,19 +4898,19 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4944,86 +4948,86 @@
         <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5073,42 +5077,42 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5119,10 +5123,10 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>38</v>
@@ -5131,13 +5135,13 @@
         <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5188,19 +5192,19 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -5209,10 +5213,10 @@
         <v>38</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>38</v>
@@ -5220,10 +5224,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5234,7 +5238,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -5243,19 +5247,19 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5305,31 +5309,31 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>38</v>
@@ -5337,10 +5341,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5351,7 +5355,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -5363,16 +5367,16 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5398,13 +5402,13 @@
         <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>38</v>
@@ -5422,31 +5426,31 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>38</v>
@@ -5454,10 +5458,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5465,13 +5469,13 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>38</v>
@@ -5480,13 +5484,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5537,31 +5541,31 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -5569,10 +5573,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5583,7 +5587,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5595,13 +5599,13 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5652,13 +5656,13 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
@@ -5673,7 +5677,7 @@
         <v>38</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>38</v>
@@ -5684,10 +5688,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5695,7 +5699,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -5710,13 +5714,13 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5755,19 +5759,19 @@
         <v>38</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5779,7 +5783,7 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
@@ -5799,23 +5803,23 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -5827,13 +5831,13 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5884,7 +5888,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5896,7 +5900,7 @@
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
@@ -5916,10 +5920,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5930,7 +5934,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -5939,19 +5943,19 @@
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6001,19 +6005,19 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
@@ -6022,7 +6026,7 @@
         <v>38</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -6033,10 +6037,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6047,7 +6051,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -6056,19 +6060,19 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6094,13 +6098,13 @@
         <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>38</v>
@@ -6118,19 +6122,19 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
@@ -6139,7 +6143,7 @@
         <v>38</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -6150,10 +6154,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6164,7 +6168,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -6173,19 +6177,19 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6235,19 +6239,19 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
@@ -6256,7 +6260,7 @@
         <v>38</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>38</v>
@@ -6267,10 +6271,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6281,7 +6285,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -6290,19 +6294,19 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6352,19 +6356,19 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
@@ -6373,7 +6377,7 @@
         <v>38</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>38</v>
@@ -6384,10 +6388,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6398,7 +6402,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -6410,13 +6414,13 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6467,42 +6471,42 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6513,10 +6517,10 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>38</v>
@@ -6525,13 +6529,13 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6582,42 +6586,42 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6625,13 +6629,13 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>38</v>
@@ -6640,13 +6644,13 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6697,28 +6701,28 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6729,10 +6733,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6743,7 +6747,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -6755,13 +6759,13 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6788,13 +6792,13 @@
         <v>38</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>38</v>
@@ -6812,42 +6816,42 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6858,7 +6862,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -6870,13 +6874,13 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6903,13 +6907,13 @@
         <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>38</v>
@@ -6927,42 +6931,42 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6973,7 +6977,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6985,13 +6989,13 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7042,28 +7046,28 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>38</v>
@@ -7074,10 +7078,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7085,28 +7089,28 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7157,7 +7161,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7169,16 +7173,16 @@
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>38</v>
@@ -7189,10 +7193,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7203,7 +7207,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -7215,13 +7219,13 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7272,13 +7276,13 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>38</v>
@@ -7293,7 +7297,7 @@
         <v>38</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>38</v>
@@ -7304,14 +7308,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7330,16 +7334,16 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7389,7 +7393,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7401,7 +7405,7 @@
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
@@ -7410,7 +7414,7 @@
         <v>38</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>38</v>
@@ -7421,14 +7425,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7441,25 +7445,25 @@
         <v>38</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>38</v>
@@ -7508,7 +7512,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7520,7 +7524,7 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
@@ -7529,7 +7533,7 @@
         <v>38</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>38</v>
@@ -7540,10 +7544,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7554,7 +7558,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7563,16 +7567,16 @@
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7599,13 +7603,13 @@
         <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>38</v>
@@ -7623,28 +7627,28 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>38</v>
@@ -7655,10 +7659,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7666,31 +7670,31 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7740,31 +7744,31 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>38</v>
@@ -7772,10 +7776,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7795,16 +7799,16 @@
         <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7855,7 +7859,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7867,16 +7871,16 @@
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>38</v>
@@ -7887,10 +7891,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7913,13 +7917,13 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7946,13 +7950,13 @@
         <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>38</v>
@@ -7970,7 +7974,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7982,16 +7986,16 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>38</v>
@@ -8002,10 +8006,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8028,13 +8032,13 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8085,7 +8089,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8097,16 +8101,16 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>38</v>
@@ -8117,10 +8121,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8131,35 +8135,35 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>38</v>
@@ -8204,28 +8208,28 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>38</v>
@@ -8236,10 +8240,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8262,13 +8266,13 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8295,13 +8299,13 @@
         <v>38</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>38</v>
@@ -8319,7 +8323,7 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8331,7 +8335,7 @@
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
@@ -8340,7 +8344,7 @@
         <v>38</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>38</v>
@@ -8351,10 +8355,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8377,13 +8381,13 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8434,7 +8438,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8446,7 +8450,7 @@
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
@@ -8455,7 +8459,7 @@
         <v>38</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>38</v>
@@ -8466,10 +8470,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8480,7 +8484,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>38</v>
@@ -8492,13 +8496,13 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8549,13 +8553,13 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>38</v>
@@ -8570,7 +8574,7 @@
         <v>38</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>38</v>
@@ -8581,14 +8585,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8607,16 +8611,16 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8666,7 +8670,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -8678,7 +8682,7 @@
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
@@ -8687,7 +8691,7 @@
         <v>38</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>38</v>
@@ -8698,14 +8702,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8718,25 +8722,25 @@
         <v>38</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -8785,7 +8789,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -8797,7 +8801,7 @@
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
@@ -8806,7 +8810,7 @@
         <v>38</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>38</v>
@@ -8817,10 +8821,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8831,7 +8835,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>38</v>
@@ -8843,13 +8847,13 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8900,28 +8904,28 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>38</v>
@@ -8932,10 +8936,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8946,7 +8950,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>38</v>
@@ -8958,13 +8962,13 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9015,19 +9019,19 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
@@ -9036,7 +9040,7 @@
         <v>38</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>38</v>
@@ -9047,10 +9051,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9061,7 +9065,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
@@ -9073,13 +9077,13 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9130,28 +9134,28 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>38</v>
@@ -9162,10 +9166,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9176,7 +9180,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>38</v>
@@ -9188,13 +9192,13 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9245,28 +9249,28 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>38</v>
@@ -9277,10 +9281,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9294,7 +9298,7 @@
         <v>40</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>38</v>
@@ -9303,13 +9307,13 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9336,11 +9340,11 @@
         <v>38</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>38</v>
@@ -9358,7 +9362,7 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9370,16 +9374,16 @@
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>38</v>
@@ -9390,10 +9394,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9404,7 +9408,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>38</v>
@@ -9416,13 +9420,13 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9449,13 +9453,13 @@
         <v>38</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>38</v>
@@ -9473,19 +9477,19 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>38</v>
@@ -9494,7 +9498,7 @@
         <v>38</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>38</v>
@@ -9505,10 +9509,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9522,7 +9526,7 @@
         <v>40</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>38</v>
@@ -9531,16 +9535,16 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9590,7 +9594,7 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -9602,16 +9606,16 @@
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>38</v>
@@ -9622,10 +9626,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9636,7 +9640,7 @@
         <v>39</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>38</v>
@@ -9648,13 +9652,13 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9705,13 +9709,13 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>38</v>
@@ -9726,7 +9730,7 @@
         <v>38</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>38</v>
@@ -9737,14 +9741,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9763,16 +9767,16 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9822,7 +9826,7 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -9834,7 +9838,7 @@
         <v>38</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>38</v>
@@ -9843,7 +9847,7 @@
         <v>38</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>38</v>
@@ -9854,14 +9858,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9874,25 +9878,25 @@
         <v>38</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
@@ -9941,7 +9945,7 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -9953,7 +9957,7 @@
         <v>38</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>38</v>
@@ -9962,7 +9966,7 @@
         <v>38</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>38</v>
@@ -9973,10 +9977,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9987,7 +9991,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>38</v>
@@ -9999,13 +10003,13 @@
         <v>38</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10056,28 +10060,28 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>38</v>
@@ -10088,10 +10092,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10102,7 +10106,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>38</v>
@@ -10114,13 +10118,13 @@
         <v>38</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10171,28 +10175,28 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>38</v>
@@ -10203,10 +10207,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10217,7 +10221,7 @@
         <v>39</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>38</v>
@@ -10229,13 +10233,13 @@
         <v>38</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10286,28 +10290,28 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>38</v>
@@ -10318,10 +10322,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10332,10 +10336,10 @@
         <v>39</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>38</v>
@@ -10344,13 +10348,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10401,7 +10405,7 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10413,7 +10417,7 @@
         <v>38</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>38</v>
@@ -10422,7 +10426,7 @@
         <v>38</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>38</v>
@@ -10433,10 +10437,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10447,7 +10451,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>38</v>
@@ -10459,13 +10463,13 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10516,13 +10520,13 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>38</v>
@@ -10537,7 +10541,7 @@
         <v>38</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>38</v>
@@ -10548,14 +10552,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10574,16 +10578,16 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10633,7 +10637,7 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -10645,7 +10649,7 @@
         <v>38</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>38</v>
@@ -10654,7 +10658,7 @@
         <v>38</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>38</v>
@@ -10665,14 +10669,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10685,25 +10689,25 @@
         <v>38</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>38</v>
@@ -10752,7 +10756,7 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -10764,7 +10768,7 @@
         <v>38</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>38</v>
@@ -10773,7 +10777,7 @@
         <v>38</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>38</v>
@@ -10784,10 +10788,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10798,7 +10802,7 @@
         <v>39</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>38</v>
@@ -10810,13 +10814,13 @@
         <v>38</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10867,19 +10871,19 @@
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>38</v>
@@ -10888,7 +10892,7 @@
         <v>38</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>38</v>
@@ -10899,10 +10903,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10913,7 +10917,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>38</v>
@@ -10925,13 +10929,13 @@
         <v>38</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10982,19 +10986,19 @@
         <v>38</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>38</v>
@@ -11003,7 +11007,7 @@
         <v>38</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>38</v>
@@ -11014,10 +11018,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11040,13 +11044,13 @@
         <v>38</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11073,13 +11077,13 @@
         <v>38</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>38</v>
@@ -11097,7 +11101,7 @@
         <v>38</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -11109,7 +11113,7 @@
         <v>38</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>38</v>
@@ -11118,7 +11122,7 @@
         <v>38</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>38</v>
@@ -11129,10 +11133,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11140,10 +11144,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>38</v>
@@ -11155,16 +11159,16 @@
         <v>38</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11202,29 +11206,29 @@
         <v>38</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AC81" s="2"/>
       <c r="AD81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>38</v>
@@ -11233,7 +11237,7 @@
         <v>38</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>38</v>
@@ -11244,26 +11248,26 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>38</v>
@@ -11272,16 +11276,16 @@
         <v>38</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11331,19 +11335,19 @@
         <v>38</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>38</v>
@@ -11352,7 +11356,7 @@
         <v>38</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>38</v>
@@ -11363,10 +11367,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11377,7 +11381,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>38</v>
@@ -11389,16 +11393,16 @@
         <v>38</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11448,19 +11452,19 @@
         <v>38</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>38</v>
@@ -11469,7 +11473,7 @@
         <v>38</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>38</v>

--- a/clcore/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/clcore/output/StructureDefinition-ImmunizationCL.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.2</t>
+    <t>1.8.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T14:45:29-04:00</t>
+    <t>2023-10-31T17:56:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/clcore/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/clcore/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T12:29:21-03:00</t>
+    <t>2023-11-13T14:28:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/clcore/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/clcore/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T14:28:19-03:00</t>
+    <t>2023-11-14T10:49:35-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/clcore/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/clcore/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T17:56:54-03:00</t>
+    <t>2023-11-02T09:33:03-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
